--- a/public/produk.xlsx
+++ b/public/produk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\nextjs-product\erp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CE40722-69A6-423A-A68A-8416A14A6479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D4DD91-9E33-4C95-ACC1-40D6B057C604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{333ACEB7-14F3-4B8D-9DF4-9A0E2D4C50ED}"/>
   </bookViews>
@@ -25,12 +25,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>nama</t>
+  </si>
+  <si>
+    <t>id_kustom</t>
+  </si>
+  <si>
+    <t>kategori</t>
+  </si>
+  <si>
+    <t>tipe</t>
+  </si>
+  <si>
+    <t>stok</t>
+  </si>
+  <si>
+    <t>satuan</t>
+  </si>
+  <si>
+    <t>merek</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>hargamodal</t>
+  </si>
+  <si>
+    <t>hargajual</t>
+  </si>
+  <si>
+    <t>keterangan</t>
   </si>
 </sst>
 </file>
@@ -382,20 +409,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21392975-1E64-4BEB-8979-3028A26144E9}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/produk.xlsx
+++ b/public/produk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\nextjs-product\erp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D4DD91-9E33-4C95-ACC1-40D6B057C604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C6ED6-CF25-4227-B9C9-36564407CEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{333ACEB7-14F3-4B8D-9DF4-9A0E2D4C50ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{333ACEB7-14F3-4B8D-9DF4-9A0E2D4C50ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,39 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>nama</t>
   </si>
   <si>
-    <t>id_kustom</t>
-  </si>
-  <si>
-    <t>kategori</t>
-  </si>
-  <si>
     <t>tipe</t>
   </si>
   <si>
-    <t>stok</t>
-  </si>
-  <si>
     <t>satuan</t>
   </si>
   <si>
     <t>merek</t>
   </si>
   <si>
-    <t>vendor</t>
-  </si>
-  <si>
-    <t>hargamodal</t>
-  </si>
-  <si>
-    <t>hargajual</t>
-  </si>
-  <si>
     <t>keterangan</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>modal</t>
+  </si>
+  <si>
+    <t>jual</t>
+  </si>
+  <si>
+    <t>tanggal</t>
+  </si>
+  <si>
+    <t>aaacoba</t>
+  </si>
+  <si>
+    <t>aaacoba2</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>ajj</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -93,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,47 +428,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21392975-1E64-4BEB-8979-3028A26144E9}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>2000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45615</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>4000</v>
+      </c>
+      <c r="G3">
+        <v>8000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45615</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/produk.xlsx
+++ b/public/produk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\nextjs-product\erp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C6ED6-CF25-4227-B9C9-36564407CEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E661B0C4-970B-4BED-9145-2800A5BC9C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{333ACEB7-14F3-4B8D-9DF4-9A0E2D4C50ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>nama</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>kategori</t>
   </si>
 </sst>
 </file>
@@ -428,101 +431,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21392975-1E64-4BEB-8979-3028A26144E9}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>45615</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>8000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>45615</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/public/produk.xlsx
+++ b/public/produk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\nextjs-product\erp\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\next_erp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E661B0C4-970B-4BED-9145-2800A5BC9C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6DA54E-5A2B-4547-ACD8-368DAFA4F2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{333ACEB7-14F3-4B8D-9DF4-9A0E2D4C50ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{333ACEB7-14F3-4B8D-9DF4-9A0E2D4C50ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>nama</t>
   </si>
@@ -54,31 +65,28 @@
     <t>tanggal</t>
   </si>
   <si>
-    <t>aaacoba</t>
-  </si>
-  <si>
-    <t>aaacoba2</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>ajj</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>v</t>
   </si>
   <si>
     <t>kategori</t>
+  </si>
+  <si>
+    <t>jumlah</t>
+  </si>
+  <si>
+    <t>namakustom</t>
+  </si>
+  <si>
+    <t>tipe2</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>pack</t>
   </si>
 </sst>
 </file>
@@ -114,8 +122,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -135,9 +149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +189,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -281,7 +295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,23 +445,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21392975-1E64-4BEB-8979-3028A26144E9}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -467,72 +489,81 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45947</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
-        <v>1000</v>
-      </c>
-      <c r="H2">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>45615</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8000</v>
+      </c>
+      <c r="I3" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45947</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>4000</v>
-      </c>
-      <c r="H3">
-        <v>8000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>45615</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
+      <c r="L3" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>